--- a/wisconsin/Wisconsin Data.xlsx
+++ b/wisconsin/Wisconsin Data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zomalex-my.sharepoint.com/personal/mark_wilcock_zomalex_co_uk/Documents/Courses/_Power AI/Case Studies/Wisconsin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{797D08BC-0CA8-405A-A829-8711C78A495E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{797D08BC-0CA8-405A-A829-8711C78A495E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{796212A4-97F9-463A-8339-4DB4669D6B18}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,6 +666,88 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A32061B4-124F-4AB9-AA11-95B1DAE9EA4F}" name="MainData" displayName="MainData" ref="A1:AF512" totalsRowShown="0">
+  <autoFilter ref="A1:AF512" xr:uid="{8A217ACE-2B43-44ED-A800-2788FAE52AB4}"/>
+  <tableColumns count="32">
+    <tableColumn id="1" xr3:uid="{B9F6C623-C9C3-470D-BC6F-2EBED384E2D3}" name="id"/>
+    <tableColumn id="2" xr3:uid="{986F76D4-BD12-4603-B0B1-CB3C457D8FA0}" name="diagnosis"/>
+    <tableColumn id="3" xr3:uid="{6203A71F-CD01-4090-A9C3-85BCF73E8B9F}" name="radius_mean"/>
+    <tableColumn id="4" xr3:uid="{C13EAE14-A05B-4FBC-B9C0-07C663F06E1B}" name="texture_mean"/>
+    <tableColumn id="5" xr3:uid="{075AE87C-2064-4A62-A747-8DCB2A3FF63F}" name="perimeter_mean"/>
+    <tableColumn id="6" xr3:uid="{F674364B-07B9-4573-A5EC-D811610164DB}" name="area_mean"/>
+    <tableColumn id="7" xr3:uid="{5D87102F-D95A-47E1-AB0A-D7F99B56A561}" name="smoothness_mean"/>
+    <tableColumn id="8" xr3:uid="{2ACB764B-3728-44F6-A056-681FD0288A05}" name="compactness_mean"/>
+    <tableColumn id="9" xr3:uid="{4690671C-FE43-4209-ACA2-CB829688A1A2}" name="concavity_mean"/>
+    <tableColumn id="10" xr3:uid="{EA90CCBB-B20D-40F7-AA4F-8ED10ABD9665}" name="concave points_mean"/>
+    <tableColumn id="11" xr3:uid="{C7DA6329-73E5-4D64-8BD5-BCD3BDC9B99F}" name="symmetry_mean"/>
+    <tableColumn id="12" xr3:uid="{3C9DEF65-F487-4330-AD17-C992819139DD}" name="fractal_dimension_mean"/>
+    <tableColumn id="13" xr3:uid="{7062A603-CB87-42B4-ABFF-A36AC3CEA046}" name="radius_se"/>
+    <tableColumn id="14" xr3:uid="{F7534533-352B-43DA-8B3C-5188C7E2AA19}" name="texture_se"/>
+    <tableColumn id="15" xr3:uid="{0E12ABEE-83ED-482A-BDFD-FC72795D599A}" name="perimeter_se"/>
+    <tableColumn id="16" xr3:uid="{54D47CCA-E365-4910-908F-0F8D91D64874}" name="area_se"/>
+    <tableColumn id="17" xr3:uid="{6DDA34FC-D2CD-4FE4-BDA6-3FFBA6EC2B56}" name="smoothness_se"/>
+    <tableColumn id="18" xr3:uid="{DBF5897C-2172-405A-AF8B-843BB702E154}" name="compactness_se"/>
+    <tableColumn id="19" xr3:uid="{818B4F96-EC6F-4D69-9628-B3EA1A0FD2EC}" name="concavity_se"/>
+    <tableColumn id="20" xr3:uid="{D5738EED-5532-495A-9628-6E964A4958E2}" name="concave points_se"/>
+    <tableColumn id="21" xr3:uid="{A4D6AE2F-0758-41C4-9185-C2E798ECA740}" name="symmetry_se"/>
+    <tableColumn id="22" xr3:uid="{92C96E86-9738-482B-8AE7-D70A5002BB8D}" name="fractal_dimension_se"/>
+    <tableColumn id="23" xr3:uid="{E32788E1-31EF-4AEE-AC40-333E9FFBEA72}" name="radius_worst"/>
+    <tableColumn id="24" xr3:uid="{49B81092-6F1F-4432-8041-39785752A953}" name="texture_worst"/>
+    <tableColumn id="25" xr3:uid="{7E782F30-8845-4F02-AA53-B958733C33F1}" name="perimeter_worst"/>
+    <tableColumn id="26" xr3:uid="{732E12E3-16AB-49D7-935B-D228097E9928}" name="area_worst"/>
+    <tableColumn id="27" xr3:uid="{C7FEE223-ACB6-4378-A6C5-7F22B0F05BB9}" name="smoothness_worst"/>
+    <tableColumn id="28" xr3:uid="{9B64482E-3885-47D0-A546-0097822ED1A2}" name="compactness_worst"/>
+    <tableColumn id="29" xr3:uid="{478A4FDA-70C8-4CAA-B8B6-A1FE53B1FD74}" name="concavity_worst"/>
+    <tableColumn id="30" xr3:uid="{3EA112A4-AD47-4B60-BC73-AEA0038FED6A}" name="concave points_worst"/>
+    <tableColumn id="31" xr3:uid="{C195453A-21E4-481E-B28A-D9ACE0C21528}" name="symmetry_worst"/>
+    <tableColumn id="32" xr3:uid="{977C84EC-C72D-4FAA-AEF0-2BBF9E9AA543}" name="fractal_dimension_worst"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2186AC5A-8D11-443F-B1E7-70956F0CB62E}" name="HoldoutData" displayName="HoldoutData" ref="A1:AF59" totalsRowShown="0">
+  <autoFilter ref="A1:AF59" xr:uid="{2A17D968-DA98-4CBE-903F-7835C85CC391}"/>
+  <tableColumns count="32">
+    <tableColumn id="1" xr3:uid="{322C6298-D418-49DB-B2E5-65B12907D239}" name="id"/>
+    <tableColumn id="2" xr3:uid="{81946C26-54EA-44C7-9C02-0452FEA06810}" name="diagnosis"/>
+    <tableColumn id="3" xr3:uid="{5724232B-6640-4B78-9247-B065086BF2D8}" name="radius_mean"/>
+    <tableColumn id="4" xr3:uid="{4CCC81E8-063D-45A5-94CE-47D0E1727562}" name="texture_mean"/>
+    <tableColumn id="5" xr3:uid="{00F51827-2D27-4950-8D74-8354D73E00D8}" name="perimeter_mean"/>
+    <tableColumn id="6" xr3:uid="{54BA50C8-F62D-4223-9D51-79FD05647FAC}" name="area_mean"/>
+    <tableColumn id="7" xr3:uid="{8075A305-19A7-4F69-937A-D92A17066083}" name="smoothness_mean"/>
+    <tableColumn id="8" xr3:uid="{7BA828E1-3F6E-4A00-8501-D0764EC4C80F}" name="compactness_mean"/>
+    <tableColumn id="9" xr3:uid="{147B5D7A-1F46-43EE-9A09-CDD0A8913C4D}" name="concavity_mean"/>
+    <tableColumn id="10" xr3:uid="{DE7A8EEA-938A-4CC6-81B8-B386DAB60815}" name="concave points_mean"/>
+    <tableColumn id="11" xr3:uid="{3874BE89-DD28-4468-A9BE-5197DE807D3D}" name="symmetry_mean"/>
+    <tableColumn id="12" xr3:uid="{4126381B-CE97-45D3-A0DF-43109C11672E}" name="fractal_dimension_mean"/>
+    <tableColumn id="13" xr3:uid="{DF5ECCBB-D971-458B-A1F5-B421B4F60797}" name="radius_se"/>
+    <tableColumn id="14" xr3:uid="{8D821445-A6CF-460E-AEF2-4969092B9A5E}" name="texture_se"/>
+    <tableColumn id="15" xr3:uid="{339CB861-9674-4680-83CF-70FBB8E820C0}" name="perimeter_se"/>
+    <tableColumn id="16" xr3:uid="{00E49BA3-6E0C-42D5-993A-8CD3E817A16C}" name="area_se"/>
+    <tableColumn id="17" xr3:uid="{3AC5246E-9325-463C-8E05-FBC957E3E93B}" name="smoothness_se"/>
+    <tableColumn id="18" xr3:uid="{17B25124-1568-4845-B475-FF704E846D3B}" name="compactness_se"/>
+    <tableColumn id="19" xr3:uid="{570356CF-BE30-425E-B70D-C3CAFC2D4D86}" name="concavity_se"/>
+    <tableColumn id="20" xr3:uid="{121AD476-DB62-4108-903B-8CBD7BAD0BDD}" name="concave points_se"/>
+    <tableColumn id="21" xr3:uid="{A4CFC7D8-3FB0-4434-9E52-9904590A064C}" name="symmetry_se"/>
+    <tableColumn id="22" xr3:uid="{B4B701AB-EFAB-4011-A1B4-993787380875}" name="fractal_dimension_se"/>
+    <tableColumn id="23" xr3:uid="{4AD5C4F5-30F1-4128-A51C-C8BC180CB102}" name="radius_worst"/>
+    <tableColumn id="24" xr3:uid="{EE7C2754-A57B-4149-BCC7-175371A4986E}" name="texture_worst"/>
+    <tableColumn id="25" xr3:uid="{AF836680-CA16-43C8-834B-CF8EE65B62EE}" name="perimeter_worst"/>
+    <tableColumn id="26" xr3:uid="{03590369-6482-4F00-B22D-9B21AB94F030}" name="area_worst"/>
+    <tableColumn id="27" xr3:uid="{A9AC37FD-A620-484A-BD7E-6526DED413A7}" name="smoothness_worst"/>
+    <tableColumn id="28" xr3:uid="{B9653E3D-64F6-434F-A570-64DD545EDEEB}" name="compactness_worst"/>
+    <tableColumn id="29" xr3:uid="{1CA85077-7570-4B17-A5AB-8642A8DCAB37}" name="concavity_worst"/>
+    <tableColumn id="30" xr3:uid="{D4794B95-EF6C-4E5C-8580-AF1F239E8AF3}" name="concave points_worst"/>
+    <tableColumn id="31" xr3:uid="{CE316F4F-96F7-4F52-BCC8-A667F67A40BB}" name="symmetry_worst"/>
+    <tableColumn id="32" xr3:uid="{522ABFE9-74F1-4B5A-8F88-3324C0D0FCB6}" name="fractal_dimension_worst"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -962,14 +1044,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF512"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="18.140625" customWidth="1"/>
+    <col min="26" max="26" width="13" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" customWidth="1"/>
+    <col min="28" max="28" width="20.5703125" customWidth="1"/>
+    <col min="29" max="29" width="17.42578125" customWidth="1"/>
+    <col min="30" max="30" width="22.28515625" customWidth="1"/>
+    <col min="31" max="31" width="18" customWidth="1"/>
+    <col min="32" max="32" width="25.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -51149,16 +51264,54 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AF59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="18.140625" customWidth="1"/>
+    <col min="26" max="26" width="13" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" customWidth="1"/>
+    <col min="28" max="28" width="20.5703125" customWidth="1"/>
+    <col min="29" max="29" width="17.42578125" customWidth="1"/>
+    <col min="30" max="30" width="22.28515625" customWidth="1"/>
+    <col min="31" max="31" width="18" customWidth="1"/>
+    <col min="32" max="32" width="25.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -57118,5 +57271,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>